--- a/Testdata.xlsx
+++ b/Testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2472" windowWidth="10680" windowHeight="4308"/>
+    <workbookView xWindow="0" yWindow="2472" windowWidth="10896" windowHeight="4308"/>
   </bookViews>
   <sheets>
     <sheet name="LoginC" sheetId="1" r:id="rId1"/>
@@ -391,7 +391,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -426,9 +426,6 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2">
-        <v>1234509876</v>
-      </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
